--- a/OrdersData_calculator.xlsx
+++ b/OrdersData_calculator.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EC487C-A1A5-42FA-97DF-F517CAB905DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF24C5-4FA0-4DB5-BEFC-635424267975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Matrix" sheetId="4" r:id="rId1"/>
+    <sheet name="Save as CSV" sheetId="4" r:id="rId1"/>
     <sheet name="Distance Calc" sheetId="3" r:id="rId2"/>
     <sheet name="RandBetween" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC3AF28-BD23-4CAE-8CBC-A0419DD50144}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE50052-31A7-4C21-9804-FAFB9D5F9D98}">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5500,7 +5500,7 @@
         <v>89</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:T35" si="7">SQRT(($B27-E$2)^2+($C27-E$3)^2)</f>
+        <f t="shared" ref="E27:P35" si="7">SQRT(($B27-E$2)^2+($C27-E$3)^2)</f>
         <v>109.62207806824317</v>
       </c>
       <c r="F27">
@@ -6690,8 +6690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6721,11 +6721,11 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6734,11 +6734,11 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:C34" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6747,11 +6747,11 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6760,11 +6760,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6773,11 +6773,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6786,11 +6786,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6799,11 +6799,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6812,11 +6812,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6825,11 +6825,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6838,11 +6838,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6851,11 +6851,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6864,11 +6864,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6877,11 +6877,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6890,11 +6890,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6903,11 +6903,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6916,11 +6916,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -6930,11 +6930,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -6944,11 +6944,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -6958,11 +6958,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -6972,11 +6972,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -6986,11 +6986,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -7000,11 +7000,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -7014,11 +7014,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -7028,11 +7028,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -7042,11 +7042,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -7056,11 +7056,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7069,11 +7069,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -7082,11 +7082,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -7095,11 +7095,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7108,11 +7108,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7121,11 +7121,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7134,11 +7134,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7147,11 +7147,11 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7160,11 +7160,11 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:C51" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7173,11 +7173,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7186,11 +7186,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7212,11 +7212,11 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7225,11 +7225,11 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7238,11 +7238,11 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7251,11 +7251,11 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -7264,11 +7264,11 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -7277,11 +7277,11 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7290,11 +7290,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7316,11 +7316,11 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7329,11 +7329,11 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7342,11 +7342,11 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -7355,11 +7355,11 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7368,11 +7368,11 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
